--- a/biology/Médecine/Fernand_Turcotte/Fernand_Turcotte.xlsx
+++ b/biology/Médecine/Fernand_Turcotte/Fernand_Turcotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand Turcotte, mort le 16 mai 2020 à Montréal de la Covid-19[1],[2], est un médecin québécois. Spécialiste en santé publique, il s'est distingué notamment par sa lutte contre le tabagisme et les problèmes de santé liées à l'amiante[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand Turcotte, mort le 16 mai 2020 à Montréal de la Covid-19 est un médecin québécois. Spécialiste en santé publique, il s'est distingué notamment par sa lutte contre le tabagisme et les problèmes de santé liées à l'amiante.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1998 : Médaille DeFries de l'Association canadienne de santé publique[4]
-2007 : Professeur émérite de l'Université Laval[5]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1998 : Médaille DeFries de l'Association canadienne de santé publique
+2007 : Professeur émérite de l'Université Laval</t>
         </is>
       </c>
     </row>
